--- a/mbs-perturbation/mega/multinomialNB/mega-multinomialNB-results.xlsx
+++ b/mbs-perturbation/mega/multinomialNB/mega-multinomialNB-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2767295597484277</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6491935483870968</v>
+        <v>0.6691097364174288</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4845910378144261</v>
+        <v>0.4845820845820846</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6491935483870968</v>
+        <v>0.6691097364174288</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8985215053763441</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8244561140285072</v>
+        <v>0.786497641509434</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8985215053763441</v>
+        <v>0.8321678321678322</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4938271604938271</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="C4" t="n">
-        <v>0.805855855855856</v>
+        <v>0.8886060272464567</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7373772226439399</v>
+        <v>0.8484537684537684</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8058558558558561</v>
+        <v>0.8886060272464565</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6888011896591169</v>
+        <v>0.5551809550020641</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7352272727272728</v>
+        <v>0.5500408163265307</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6888011896591169</v>
+        <v>0.5551809550020641</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="C6" t="n">
-        <v>0.513097689315946</v>
+        <v>0.6915508462914546</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4902843906833098</v>
+        <v>0.7252393494711318</v>
       </c>
       <c r="E6" t="n">
-        <v>0.513097689315946</v>
+        <v>0.6915508462914546</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5246376598379247</v>
+        <v>0.6254636270231229</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7110939577188718</v>
+        <v>0.7273230794250473</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6543872075794912</v>
+        <v>0.6789627320685899</v>
       </c>
       <c r="E7" t="n">
-        <v>0.711093957718872</v>
+        <v>0.7273230794250473</v>
       </c>
     </row>
   </sheetData>
